--- a/biology/Botanique/Francoa_sonchifolia/Francoa_sonchifolia.xlsx
+++ b/biology/Botanique/Francoa_sonchifolia/Francoa_sonchifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francoa sonchifolia est une espèce de plantes vivaces de la famille des Francoaceae originaire du Chili.
 Elle se caractérise par une rosette basale de feuilles pétiolées alternes et de grandes hampes florales pouvant atteindre un mètre de haut.
